--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,6 +49,9 @@
     <t>loves</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -58,100 +61,112 @@
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
     <t>cake</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>nice</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>cooking</t>
@@ -160,43 +175,52 @@
     <t>easy</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>works</t>
   </si>
   <si>
     <t>pan</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>make</t>
   </si>
   <si>
     <t>makes</t>
@@ -205,28 +229,10 @@
     <t>quality</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -590,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2713178294573643</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.978494623655914</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +715,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +741,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +767,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8622291021671826</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>557</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +793,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.848297213622291</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>548</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>548</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -813,13 +819,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -839,13 +845,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -857,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -865,13 +871,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7402597402597403</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L10">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M10">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -883,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -891,13 +897,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7402597402597403</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L11">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -909,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -917,13 +923,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6764705882352942</v>
+        <v>0.6875</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -943,13 +949,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6610169491525424</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L13">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -969,13 +975,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.6813559322033899</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -995,13 +1001,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.637239165329053</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L15">
-        <v>794</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>794</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1013,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>452</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1021,13 +1027,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6342857142857142</v>
+        <v>0.6527777777777778</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1047,13 +1053,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.631578947368421</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1065,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1073,13 +1079,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6285714285714286</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>801</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>801</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1091,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1099,13 +1105,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6197183098591549</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1117,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1125,13 +1131,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6153846153846154</v>
+        <v>0.6171428571428571</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1143,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1151,13 +1157,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.6041666666666666</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1177,13 +1183,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.59375</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1203,13 +1209,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5918367346938775</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1229,13 +1235,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5694444444444444</v>
+        <v>0.59375</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1247,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1255,13 +1261,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5641025641025641</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L25">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1273,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1281,13 +1287,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5526315789473685</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1299,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1307,13 +1313,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5508982035928144</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L27">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1325,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1333,13 +1339,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.5288461538461539</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1351,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1359,13 +1365,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.5238095238095238</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1377,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1385,13 +1391,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4887218045112782</v>
+        <v>0.5029940119760479</v>
       </c>
       <c r="L30">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M30">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1403,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1411,13 +1417,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4461538461538462</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1429,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1437,13 +1443,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.4457831325301205</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1455,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1463,13 +1469,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4216867469879518</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L33">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1481,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1489,13 +1495,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.4197530864197531</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M34">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1507,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1515,13 +1521,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1533,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1541,13 +1547,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3684210526315789</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1559,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1567,13 +1573,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3501945525291829</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="L37">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M37">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1585,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>167</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1593,13 +1599,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3406862745098039</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L38">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M38">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1611,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1619,13 +1625,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3063063063063063</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1637,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1645,13 +1651,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2917808219178082</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L40">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1663,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>517</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1671,13 +1677,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.2805755395683453</v>
+        <v>0.3463035019455253</v>
       </c>
       <c r="L41">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="M41">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1689,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>100</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1697,13 +1703,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2680301399354144</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="L42">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1715,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>680</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1723,13 +1729,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2631578947368421</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L43">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M43">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1741,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>154</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1749,13 +1755,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2612612612612613</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1767,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1775,13 +1781,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2450331125827815</v>
+        <v>0.2958904109589041</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1793,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>114</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1801,13 +1807,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.219435736677116</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L46">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1819,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>249</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1827,13 +1833,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.2080536912751678</v>
+        <v>0.2679425837320574</v>
       </c>
       <c r="L47">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M47">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1845,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>118</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1853,13 +1859,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.2013245033112583</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L48">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="M48">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1871,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>603</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1879,13 +1885,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1841432225063939</v>
+        <v>0.2518837459634015</v>
       </c>
       <c r="L49">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="M49">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1897,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>638</v>
+        <v>695</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1905,13 +1911,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1554621848739496</v>
+        <v>0.2198675496688742</v>
       </c>
       <c r="L50">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1923,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>201</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1931,25 +1937,25 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1517615176151761</v>
+        <v>0.2037617554858934</v>
       </c>
       <c r="L51">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M51">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>313</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1957,13 +1963,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.145985401459854</v>
+        <v>0.2020460358056266</v>
       </c>
       <c r="L52">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="M52">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1975,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>351</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1983,13 +1989,13 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1340909090909091</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L53">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2001,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>381</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2009,25 +2015,25 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.1291512915129151</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L54">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M54">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>236</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2035,13 +2041,13 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.116945107398568</v>
+        <v>0.1435523114355231</v>
       </c>
       <c r="L55">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M55">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2053,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2061,13 +2067,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.1168384879725086</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M56">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2079,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2087,13 +2093,13 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.1162280701754386</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L57">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2105,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>403</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2113,13 +2119,13 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.1148148148148148</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="L58">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M58">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2131,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>239</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2139,25 +2145,25 @@
         <v>66</v>
       </c>
       <c r="K59">
-        <v>0.09612625538020086</v>
+        <v>0.125</v>
       </c>
       <c r="L59">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="M59">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="N59">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>630</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2165,13 +2171,13 @@
         <v>67</v>
       </c>
       <c r="K60">
-        <v>0.08469945355191257</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M60">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2183,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2191,25 +2197,25 @@
         <v>68</v>
       </c>
       <c r="K61">
-        <v>0.08123249299719888</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="L61">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="M61">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="N61">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>984</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2217,13 +2223,13 @@
         <v>69</v>
       </c>
       <c r="K62">
-        <v>0.07360406091370558</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L62">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M62">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2235,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>365</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2243,13 +2249,13 @@
         <v>70</v>
       </c>
       <c r="K63">
-        <v>0.05719557195571956</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L63">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M63">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2261,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>511</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2269,25 +2275,77 @@
         <v>71</v>
       </c>
       <c r="K64">
-        <v>0.03812824956672443</v>
+        <v>0.07890961262553801</v>
       </c>
       <c r="L64">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M64">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N64">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1110</v>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65">
+        <v>0.07390084190832553</v>
+      </c>
+      <c r="L65">
+        <v>79</v>
+      </c>
+      <c r="M65">
+        <v>82</v>
+      </c>
+      <c r="N65">
+        <v>0.96</v>
+      </c>
+      <c r="O65">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K66">
+        <v>0.04325259515570934</v>
+      </c>
+      <c r="L66">
+        <v>50</v>
+      </c>
+      <c r="M66">
+        <v>51</v>
+      </c>
+      <c r="N66">
+        <v>0.98</v>
+      </c>
+      <c r="O66">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
